--- a/biology/Zoologie/Chirostoma_aculeatum/Chirostoma_aculeatum.xlsx
+++ b/biology/Zoologie/Chirostoma_aculeatum/Chirostoma_aculeatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chirostoma aculeatum est une espèce de poissons de la famille des Atherinopsidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chirostoma aculeatum est une espèce de poissons de la famille des Atherinopsidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve ce poisson au Mexique, il est endémique du bassin de la rivière Lerma, au nord de Mexico[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve ce poisson au Mexique, il est endémique du bassin de la rivière Lerma, au nord de Mexico.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa publication de 1973[3], l'auteur indique que cette espèce mesure entre 52 et 109,4 mm de longueur standard (excluant la nageoire caudale).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa publication de 1973, l'auteur indique que cette espèce mesure entre 52 et 109,4 mm de longueur standard (excluant la nageoire caudale).
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Menacé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est en déclin à cause de la pollution de l'eau et des barrages qui ont été construit. Elle serait peut-être éteint à l'état sauvage[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est en déclin à cause de la pollution de l'eau et des barrages qui ont été construit. Elle serait peut-être éteint à l'état sauvage.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Chirostoma aculeatum a été décrite en 1973 par Clyde D. Barbour (d)[5],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Chirostoma aculeatum a été décrite en 1973 par Clyde D. Barbour (d),.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du latin aculeatum, « pointu », fait référence à son museau[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du latin aculeatum, « pointu », fait référence à son museau.
 </t>
         </is>
       </c>
@@ -666,7 +688,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Clyde D. Barbour, « The systematics and evolution of the genus Chirostoma Swainson (Pisces, Atherinidae) », Tulane Studies in Zoology and Botany, vol. 18, no 3,‎ 16 mars 1973, p. 97-141 (ISSN 0082-6782 et 2169-0790, lire en ligne)</t>
         </is>
